--- a/Running projects/Engro 3rd & 8th Floor/2301_8, 3 & 7_FF_BOQ_000_26012023.xlsx
+++ b/Running projects/Engro 3rd & 8th Floor/2301_8, 3 & 7_FF_BOQ_000_26012023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Xls\Sent BOQ\Engro ARIBA\Sent to IK\Final IK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\Engro 3rd &amp; 8th Floor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABC89673-5490-4BF4-A2ED-77FB1F158935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79F69F43-EBEE-430C-B225-B65BAED83083}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="3F " sheetId="1" r:id="rId1"/>
@@ -1148,8 +1148,8 @@
   </sheetPr>
   <dimension ref="A1:CL39"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="P39" sqref="P39"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="120" workbookViewId="0">
+      <selection activeCell="N42" sqref="N42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3012,8 +3012,8 @@
   </sheetPr>
   <dimension ref="A1:CJ39"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A25" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
